--- a/img/Tableau.xlsx
+++ b/img/Tableau.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ethan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ethan\Documents\E5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7804A0A-9850-4FF3-B637-FC21C439DDE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB703E70-9A0D-4CAA-9EFA-826BD7C07F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
   <si>
     <t>Gérer le patrimoine informatique</t>
   </si>
@@ -128,27 +128,12 @@
     <t>Mai - Juin 2023</t>
   </si>
   <si>
-    <t>Réalisation d'un site web ( E-PRINT)</t>
-  </si>
-  <si>
-    <t>Réalisation d'un site web ( Jessy-Beauty)</t>
-  </si>
-  <si>
-    <t>Réalisation d'un site web ( Stef Meca Pneu)</t>
-  </si>
-  <si>
-    <t>Réalisations de test pour un logiciel</t>
-  </si>
-  <si>
     <t>NOM et prénom : Allouche Ethan</t>
   </si>
   <si>
     <t>Centre de formation : ORT DANIEL MAYER</t>
   </si>
   <si>
-    <t>Projet HELPORT WEB SYMFONY</t>
-  </si>
-  <si>
     <t>Projet HELPORT JAVA</t>
   </si>
   <si>
@@ -162,6 +147,24 @@
   </si>
   <si>
     <t>Janvier - Février 2024</t>
+  </si>
+  <si>
+    <t>Projet HELPORT WEB PHP SYMFONY</t>
+  </si>
+  <si>
+    <t>Solution HACKATON ORANGE</t>
+  </si>
+  <si>
+    <t>Réalisations de test pour un logiciel (Excel / C++)</t>
+  </si>
+  <si>
+    <t>Réalisation d'un site web ( Stef Meca Pneu) (Wordpress)</t>
+  </si>
+  <si>
+    <t>Réalisation d'un site web ( Jessy-Beauty)  (Wordpress)</t>
+  </si>
+  <si>
+    <t>Réalisation d'un site web ( E-PRINT)  (Wordpress)</t>
   </si>
 </sst>
 </file>
@@ -690,12 +693,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -822,6 +819,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1133,8 +1136,8 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1147,83 +1150,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="33"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
     </row>
     <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="51" t="s">
+      <c r="A3" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="46"/>
-      <c r="H3" s="52"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="50"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="44"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="42"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="38" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1244,27 +1247,27 @@
       <c r="H6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="25"/>
+      <c r="I6" s="23"/>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="8" t="s">
+      <c r="A7" s="30"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="52" t="s">
         <v>14</v>
       </c>
       <c r="I7"/>
@@ -1304,16 +1307,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="36"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="34"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1351,20 +1354,20 @@
       <c r="AQ8"/>
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="29" t="s">
+      <c r="B9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="29" t="s">
+      <c r="H9" s="27" t="s">
         <v>23</v>
       </c>
       <c r="I9"/>
@@ -1404,14 +1407,20 @@
       <c r="AQ9"/>
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="18"/>
+      <c r="A10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="28">
+        <v>45017</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="16"/>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
@@ -1449,14 +1458,24 @@
       <c r="AQ10"/>
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="18"/>
+      <c r="A11" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="28">
+        <v>45170</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="16"/>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
@@ -1494,14 +1513,24 @@
       <c r="AQ11"/>
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="18"/>
+      <c r="A12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="28">
+        <v>45170</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="16"/>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
@@ -1539,14 +1568,22 @@
       <c r="AQ12"/>
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="18"/>
+      <c r="A13" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="16"/>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
@@ -1584,14 +1621,14 @@
       <c r="AQ13"/>
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="18"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="16"/>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
@@ -1629,14 +1666,14 @@
       <c r="AQ14"/>
     </row>
     <row r="15" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="18"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="16"/>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
@@ -1674,20 +1711,14 @@
       <c r="AQ15"/>
     </row>
     <row r="16" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="30">
-        <v>45017</v>
-      </c>
-      <c r="C16" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="18"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="16"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -1725,24 +1756,14 @@
       <c r="AQ16"/>
     </row>
     <row r="17" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="30">
-        <v>45170</v>
-      </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" s="18"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="16"/>
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
@@ -1780,24 +1801,14 @@
       <c r="AQ17"/>
     </row>
     <row r="18" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="30">
-        <v>45170</v>
-      </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" s="18"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="16"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -1835,16 +1846,16 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="39"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="37"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -1882,23 +1893,23 @@
       <c r="AQ19"/>
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="10" t="s">
+      <c r="A20" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="22" t="s">
+      <c r="C20" s="21"/>
+      <c r="D20" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="26"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="27" t="s">
+      <c r="E20" s="24"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I20" s="24"/>
+      <c r="I20" s="22"/>
       <c r="J20"/>
       <c r="K20"/>
       <c r="L20"/>
@@ -1935,20 +1946,20 @@
       <c r="AQ20"/>
     </row>
     <row r="21" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="18"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="16"/>
       <c r="J21"/>
       <c r="K21"/>
       <c r="L21"/>
@@ -1985,20 +1996,20 @@
       <c r="AQ21"/>
     </row>
     <row r="22" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="10" t="s">
+      <c r="A22" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="28" t="s">
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="18"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="16"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
@@ -2036,20 +2047,20 @@
       <c r="AQ22"/>
     </row>
     <row r="23" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="10" t="s">
+      <c r="A23" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="28" t="s">
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="18"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="16"/>
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23"/>
@@ -2087,14 +2098,14 @@
       <c r="AQ23"/>
     </row>
     <row r="24" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="11"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="18"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="16"/>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
@@ -2132,14 +2143,14 @@
       <c r="AQ24"/>
     </row>
     <row r="25" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="11"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="18"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="16"/>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25"/>
@@ -2177,14 +2188,14 @@
       <c r="AQ25"/>
     </row>
     <row r="26" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="11"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="18"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="16"/>
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26"/>
@@ -2222,16 +2233,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="39"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="37"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2269,26 +2280,26 @@
       <c r="AQ27"/>
     </row>
     <row r="28" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="29" t="s">
+      <c r="A28" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="29" t="s">
+      <c r="D28" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="E28" s="17"/>
-      <c r="F28" s="29" t="s">
+      <c r="E28" s="15"/>
+      <c r="F28" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="G28" s="22" t="s">
+      <c r="G28" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="H28" s="18"/>
+      <c r="H28" s="16"/>
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
@@ -2326,14 +2337,14 @@
       <c r="AQ28"/>
     </row>
     <row r="29" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="11"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="18"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="16"/>
       <c r="I29"/>
       <c r="J29"/>
       <c r="K29"/>
@@ -2371,14 +2382,14 @@
       <c r="AQ29"/>
     </row>
     <row r="30" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="11"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="18"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="16"/>
       <c r="I30"/>
       <c r="J30"/>
       <c r="K30"/>
@@ -2416,14 +2427,14 @@
       <c r="AQ30"/>
     </row>
     <row r="31" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="11"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="18"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="16"/>
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31"/>
@@ -2461,14 +2472,14 @@
       <c r="AQ31"/>
     </row>
     <row r="32" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="11"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="18"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="16"/>
       <c r="I32"/>
       <c r="J32"/>
       <c r="K32"/>
@@ -2506,14 +2517,14 @@
       <c r="AQ32"/>
     </row>
     <row r="33" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="11"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="18"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="16"/>
       <c r="I33"/>
       <c r="J33"/>
       <c r="K33"/>
@@ -2551,14 +2562,14 @@
       <c r="AQ33"/>
     </row>
     <row r="34" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="20"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="18"/>
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34"/>

--- a/img/Tableau.xlsx
+++ b/img/Tableau.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ethan\Documents\E5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB703E70-9A0D-4CAA-9EFA-826BD7C07F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCBB725-5746-4E3F-9146-86021685B372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
   <si>
     <t>Gérer le patrimoine informatique</t>
   </si>
@@ -150,9 +150,6 @@
   </si>
   <si>
     <t>Projet HELPORT WEB PHP SYMFONY</t>
-  </si>
-  <si>
-    <t>Solution HACKATON ORANGE</t>
   </si>
   <si>
     <t>Réalisations de test pour un logiciel (Excel / C++)</t>
@@ -754,15 +751,45 @@
     <xf numFmtId="17" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -795,36 +822,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1136,8 +1133,8 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1176,30 +1173,30 @@
       <c r="H2" s="31"/>
     </row>
     <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="49" t="s">
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="44"/>
-      <c r="H3" s="50"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="39"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="48"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="37"/>
       <c r="F4" s="12" t="s">
         <v>8</v>
       </c>
@@ -1211,22 +1208,22 @@
       </c>
     </row>
     <row r="5" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="42"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="52"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="48" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1250,24 +1247,24 @@
       <c r="I6" s="23"/>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="51" t="s">
+      <c r="A7" s="41"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="D7" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="51" t="s">
+      <c r="E7" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="51" t="s">
+      <c r="F7" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="51" t="s">
+      <c r="G7" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="52" t="s">
+      <c r="H7" s="30" t="s">
         <v>14</v>
       </c>
       <c r="I7"/>
@@ -1307,16 +1304,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="34"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="44"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1568,20 +1565,12 @@
       <c r="AQ12"/>
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="A13" s="9"/>
+      <c r="B13" s="8"/>
       <c r="C13" s="15"/>
-      <c r="D13" s="26" t="s">
-        <v>23</v>
-      </c>
+      <c r="D13" s="26"/>
       <c r="E13" s="15"/>
-      <c r="F13" s="26" t="s">
-        <v>23</v>
-      </c>
+      <c r="F13" s="26"/>
       <c r="G13" s="15"/>
       <c r="H13" s="16"/>
       <c r="I13"/>
@@ -1846,16 +1835,16 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="37"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="47"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -1894,7 +1883,7 @@
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>27</v>
@@ -1997,7 +1986,7 @@
     </row>
     <row r="22" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>27</v>
@@ -2048,7 +2037,7 @@
     </row>
     <row r="23" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>27</v>
@@ -2233,16 +2222,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="37"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="47"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2281,7 +2270,7 @@
     </row>
     <row r="28" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>34</v>
@@ -2699,11 +2688,6 @@
     <row r="81" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -2711,6 +2695,11 @@
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
